--- a/medicine/Sexualité et sexologie/Group_dating/Group_dating.xlsx
+++ b/medicine/Sexualité et sexologie/Group_dating/Group_dating.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le group dating est un moyen moderne où un groupe d'hommes et un groupe de femmes célibataires organisent une soirée ensemble dans l'espoir de former peut-être des couples.
@@ -513,9 +525,11 @@
           <t>Japon</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Japon, un gōkon (合コン?) est une rencontre à l'aveugle en groupe. Cette pratique est utilisée pour créer des liens d'amitiés entre deux groupes de sexe opposés. Généralement un homme et une femme de chaque groupe organisent ensemble le gōkon en avance. Chacun d'eux s'engage à amener trois ou quatre de leurs amis. Le lieu de rencontre est souvent un restaurant, izakaya ou tout autre endroit où l'on peut manger et boire[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Japon, un gōkon (合コン?) est une rencontre à l'aveugle en groupe. Cette pratique est utilisée pour créer des liens d'amitiés entre deux groupes de sexe opposés. Généralement un homme et une femme de chaque groupe organisent ensemble le gōkon en avance. Chacun d'eux s'engage à amener trois ou quatre de leurs amis. Le lieu de rencontre est souvent un restaurant, izakaya ou tout autre endroit où l'on peut manger et boire.
 Le terme gōkon (合コン?) vient du mot japonais konpa (コンパ?, une fête pour les membres d'un groupe, d'une classe ou d'un club) et gōdō (合同?, « ensemble », « combinaison »). De manière générale, les soirées gōkon ne sont pas principalement destinées à aboutir à une soirée sans lendemain mais plutôt à faire des amis et des relations à long terme. Parfois, les participants jouent à certains jeux afin d'apaiser les tensions et créer une atmosphère conviviale.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Royaume-Uni</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Des événements de group dating ont également été développés indépendamment dans les universités d'Oxford et de Cambridge où elles sont connues respectivement sous les noms de Crewdate et formal swap.
 </t>
@@ -576,9 +592,11 @@
           <t>France</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, quelques sociétés proposent des rencontres par affinité entre deux groupes[2],[3],[4],[5],[6],[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, quelques sociétés proposent des rencontres par affinité entre deux groupes.
 </t>
         </is>
       </c>
